--- a/theme_group/테마그룹별.xlsx
+++ b/theme_group/테마그룹별.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAMSUNG\OneDrive\원드라이브사본\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAMSUNG\PycharmProjects\Stock_data\theme_group\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3F44D41-951B-4CC1-9855-A93B342D7F8A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC8A17E4-87A3-4000-9E1C-13CE0AE7F85A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="1908" windowWidth="17280" windowHeight="8964" xr2:uid="{E78458B7-8EB7-45D5-B184-B4247BF0B62C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E78458B7-8EB7-45D5-B184-B4247BF0B62C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1695,7 +1696,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E685FC-DD20-4ABA-A0CD-856F909BCA51}">
   <dimension ref="A1:J143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
